--- a/medicine/Œil et vue/Tapetum_lucidum/Tapetum_lucidum.xlsx
+++ b/medicine/Œil et vue/Tapetum_lucidum/Tapetum_lucidum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le tapetum lucidum (locution latine signifiant « tapis luisant »), également appelé en français « tapis clair », est une couche réfléchissante située au fond de l'œil, et qui peut plus précisément être localisée soit sur la choroïde, immédiatement à l'arrière de la rétine.
@@ -495,7 +507,7 @@
 le tapetum choroïdien à cristaux de guanine chez les requins et les raies,
 le tapetum cellulosum choroïdien chez les primates, les carnivores, les rongeurs et les cétacés,
 le tapetum fibrosum choroïdien chez les vaches, les moutons, les chèvres et les chevaux.
-Cette réflexion de la lumière permet notamment le comptage de nuit de nombreux animaux à des fins scientifiques[1] ou cynégétique[2].
+Cette réflexion de la lumière permet notamment le comptage de nuit de nombreux animaux à des fins scientifiques ou cynégétique.
 </t>
         </is>
       </c>
